--- a/pubmed_validation_sheets/28855492 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/28855492 DISNET VALIDATION.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{88C343F6-5CEB-C84D-A733-710B2CC61527}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D312BA-D328-7A40-B40B-106E0CCE1082}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38800" yWindow="460" windowWidth="20440" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -488,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -874,7 +885,7 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="143" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="143" customHeight="1" thickBot="1">
       <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
@@ -886,7 +897,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +915,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -930,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -958,8 +969,12 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -987,8 +1002,12 @@
       <c r="I5" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1016,8 +1035,12 @@
       <c r="I6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1045,8 +1068,12 @@
       <c r="I7" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1074,8 +1101,12 @@
       <c r="I8" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1103,8 +1134,12 @@
       <c r="I9" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1132,8 +1167,12 @@
       <c r="I10" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1161,8 +1200,12 @@
       <c r="I11" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1190,8 +1233,12 @@
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1219,8 +1266,12 @@
       <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1248,8 +1299,12 @@
       <c r="I14" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1277,8 +1332,12 @@
       <c r="I15" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1306,8 +1365,12 @@
       <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1335,8 +1398,12 @@
       <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1364,8 +1431,12 @@
       <c r="I18" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1393,8 +1464,12 @@
       <c r="I19" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1422,8 +1497,12 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1433,7 +1512,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:14">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1444,6 +1523,11 @@
       <c r="I22" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{8D916364-FFB1-B248-914C-80EE592D1195}">
+    <sortState ref="A4:I20">
+      <sortCondition ref="A3:A20"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
